--- a/RBD - Dummy/MP_Products.xlsx
+++ b/RBD - Dummy/MP_Products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>HasUnitOfMeasure</t>
   </si>
@@ -273,12 +273,21 @@
     <t>YELLOW MAIZE MEAL</t>
   </si>
   <si>
+    <t>100% BROKEN RICE_MAURITANIA_200251</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
     <t>100% BROKEN RICE_SENEGAL_200249</t>
   </si>
   <si>
     <t>Q3</t>
   </si>
   <si>
+    <t>100% BROKEN RICE_SENEGAL_200681</t>
+  </si>
+  <si>
     <t>20% BROKEN RICE_GAMBIA_200327</t>
   </si>
   <si>
@@ -288,9 +297,6 @@
     <t>20% BROKEN RICE_GUINEA_200326</t>
   </si>
   <si>
-    <t>20% BROKEN RICE_LIBERIA_200395</t>
-  </si>
-  <si>
     <t>20% BROKEN RICE_LIBERIA_200550</t>
   </si>
   <si>
@@ -333,10 +339,7 @@
     <t>25% BROKEN RICE_GUINEA-BISSAU_200846</t>
   </si>
   <si>
-    <t>25% BROKEN RICE_MAURITANIA_200251</t>
-  </si>
-  <si>
-    <t>Q5</t>
+    <t>25% BROKEN RICE_LIBERIA_200395</t>
   </si>
   <si>
     <t>25% BROKEN RICE_MAURITANIA_200640</t>
@@ -345,9 +348,6 @@
     <t>25% BROKEN RICE_NIGERIA_200777</t>
   </si>
   <si>
-    <t>25% BROKEN RICE_SENEGAL_200681</t>
-  </si>
-  <si>
     <t>25% BROKEN RICE_SIERRA LEONE_200938</t>
   </si>
   <si>
@@ -546,12 +546,6 @@
     <t>PALMOLIEN OIL_MALI_200719</t>
   </si>
   <si>
-    <t>PALMOLIEN OIL_MAURITANIA_200251</t>
-  </si>
-  <si>
-    <t>PALMOLIEN OIL_MAURITANIA_200640</t>
-  </si>
-  <si>
     <t>PALMOLIEN OIL_NIGERIA_200777</t>
   </si>
   <si>
@@ -615,6 +609,12 @@
     <t>SORGHUM/MILLET_NIGER_200961</t>
   </si>
   <si>
+    <t>SOYA BEAN OIL_MAURITANIA_200251</t>
+  </si>
+  <si>
+    <t>SOYA BEAN OIL_MAURITANIA_200640</t>
+  </si>
+  <si>
     <t>SOYA BEAN OIL_SENEGAL_200681</t>
   </si>
   <si>
@@ -879,18 +879,21 @@
     <t>YELLOW MAIZE MEAL_BURKINA FASO_200793</t>
   </si>
   <si>
+    <t>100% BROKEN RICE_MAURITANIA_200251 [Non GMO]</t>
+  </si>
+  <si>
     <t>100% BROKEN RICE_SENEGAL_200249 [Non GMO]</t>
   </si>
   <si>
+    <t>100% BROKEN RICE_SENEGAL_200681 [Non GMO]</t>
+  </si>
+  <si>
     <t>20% BROKEN RICE_GAMBIA_200327 [Non GMO]</t>
   </si>
   <si>
     <t>20% BROKEN RICE_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
-    <t>20% BROKEN RICE_LIBERIA_200395 [Non GMO]</t>
-  </si>
-  <si>
     <t>20% BROKEN RICE_LIBERIA_200550 [Non GMO]</t>
   </si>
   <si>
@@ -921,7 +924,7 @@
     <t>25% BROKEN RICE_GUINEA-BISSAU_200846 [Non GMO]</t>
   </si>
   <si>
-    <t>25% BROKEN RICE_MAURITANIA_200251 [Non GMO]</t>
+    <t>25% BROKEN RICE_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
     <t>25% BROKEN RICE_MAURITANIA_200640 [Non GMO]</t>
@@ -930,9 +933,6 @@
     <t>25% BROKEN RICE_NIGERIA_200777 [Non GMO]</t>
   </si>
   <si>
-    <t>25% BROKEN RICE_SENEGAL_200681 [Non GMO]</t>
-  </si>
-  <si>
     <t>25% BROKEN RICE_SIERRA LEONE_200938 [Non GMO]</t>
   </si>
   <si>
@@ -951,6 +951,9 @@
     <t>CANNED FISH_SENEGAL_200681 [Non GMO]</t>
   </si>
   <si>
+    <t>DRIED FRUITS_BURKINA FASO_200163 [Non GMO]</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_CAMEROON_200777 [Non GMO]</t>
   </si>
   <si>
@@ -1122,12 +1125,6 @@
     <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
   </si>
   <si>
-    <t>PALMOLIEN OIL_MAURITANIA_200251 [Non GMO]</t>
-  </si>
-  <si>
-    <t>PALMOLIEN OIL_MAURITANIA_200640 [Non GMO]</t>
-  </si>
-  <si>
     <t>PALMOLIEN OIL_NIGERIA_200777 [Non GMO]</t>
   </si>
   <si>
@@ -1186,6 +1183,12 @@
   </si>
   <si>
     <t>SORGHUM/MILLET_NIGER_200961 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SOYA BEAN OIL_MAURITANIA_200251 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SOYA BEAN OIL_MAURITANIA_200640 [Non GMO]</t>
   </si>
   <si>
     <t>SOYA BEAN OIL_SENEGAL_200681 [Non GMO]</t>
@@ -1973,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P453"/>
+  <dimension ref="A1:P454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4327,7 +4330,7 @@
       </c>
       <c r="H54" t="s"/>
       <c r="I54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J54" t="s"/>
       <c r="K54" t="n">
@@ -4371,7 +4374,7 @@
       </c>
       <c r="H55" t="s"/>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J55" t="s"/>
       <c r="K55" t="n">
@@ -4431,7 +4434,7 @@
         <v>30</v>
       </c>
       <c r="O56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P56" t="s">
         <v>34</v>
@@ -4448,14 +4451,14 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s"/>
       <c r="F57" t="s">
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s"/>
       <c r="I57" t="s">
@@ -4475,7 +4478,7 @@
         <v>30</v>
       </c>
       <c r="O57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P57" t="s">
         <v>34</v>
@@ -4492,18 +4495,18 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s"/>
       <c r="F58" t="s">
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s"/>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J58" t="s"/>
       <c r="K58" t="n">
@@ -4519,7 +4522,7 @@
         <v>30</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P58" t="s">
         <v>34</v>
@@ -4563,7 +4566,7 @@
         <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P59" t="s">
         <v>34</v>
@@ -4580,14 +4583,14 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s"/>
       <c r="F60" t="s">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s"/>
       <c r="I60" t="s">
@@ -4607,7 +4610,7 @@
         <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P60" t="s">
         <v>34</v>
@@ -4695,7 +4698,7 @@
         <v>30</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P62" t="s">
         <v>34</v>
@@ -4712,14 +4715,14 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s"/>
       <c r="F63" t="s">
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H63" t="s"/>
       <c r="I63" t="s">
@@ -4739,7 +4742,7 @@
         <v>30</v>
       </c>
       <c r="O63" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P63" t="s">
         <v>34</v>
@@ -4756,14 +4759,14 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s"/>
       <c r="F64" t="s">
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H64" t="s"/>
       <c r="I64" t="s">
@@ -4783,7 +4786,7 @@
         <v>30</v>
       </c>
       <c r="O64" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P64" t="s">
         <v>34</v>
@@ -4827,7 +4830,7 @@
         <v>30</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P65" t="s">
         <v>34</v>
@@ -4844,14 +4847,14 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s"/>
       <c r="F66" t="s">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H66" t="s"/>
       <c r="I66" t="s">
@@ -4871,7 +4874,7 @@
         <v>30</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P66" t="s">
         <v>34</v>
@@ -4888,14 +4891,14 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s"/>
       <c r="F67" t="s">
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H67" t="s"/>
       <c r="I67" t="s">
@@ -4915,7 +4918,7 @@
         <v>30</v>
       </c>
       <c r="O67" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P67" t="s">
         <v>34</v>
@@ -4959,7 +4962,7 @@
         <v>30</v>
       </c>
       <c r="O68" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P68" t="s">
         <v>34</v>
@@ -5003,7 +5006,7 @@
         <v>30</v>
       </c>
       <c r="O69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P69" t="s">
         <v>34</v>
@@ -5047,7 +5050,7 @@
         <v>30</v>
       </c>
       <c r="O70" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="P70" t="s">
         <v>34</v>
@@ -5135,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="O72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P72" t="s">
         <v>30</v>
@@ -5179,7 +5182,7 @@
         <v>30</v>
       </c>
       <c r="O73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P73" t="s">
         <v>30</v>
@@ -5223,7 +5226,7 @@
         <v>30</v>
       </c>
       <c r="O74" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s">
         <v>30</v>
@@ -5267,7 +5270,7 @@
         <v>30</v>
       </c>
       <c r="O75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P75" t="s">
         <v>30</v>
@@ -5311,7 +5314,7 @@
         <v>30</v>
       </c>
       <c r="O76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P76" t="s">
         <v>30</v>
@@ -5355,7 +5358,7 @@
         <v>30</v>
       </c>
       <c r="O77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P77" t="s">
         <v>30</v>
@@ -5399,7 +5402,7 @@
         <v>30</v>
       </c>
       <c r="O78" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P78" t="s">
         <v>30</v>
@@ -5443,7 +5446,7 @@
         <v>30</v>
       </c>
       <c r="O79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P79" t="s">
         <v>30</v>
@@ -5487,7 +5490,7 @@
         <v>30</v>
       </c>
       <c r="O80" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P80" t="s">
         <v>30</v>
@@ -5531,7 +5534,7 @@
         <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P81" t="s">
         <v>30</v>
@@ -5575,7 +5578,7 @@
         <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P82" t="s">
         <v>30</v>
@@ -5707,7 +5710,7 @@
         <v>30</v>
       </c>
       <c r="O85" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P85" t="s">
         <v>30</v>
@@ -5795,7 +5798,7 @@
         <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P87" t="s">
         <v>30</v>
@@ -5839,7 +5842,7 @@
         <v>30</v>
       </c>
       <c r="O88" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P88" t="s">
         <v>30</v>
@@ -5883,7 +5886,7 @@
         <v>30</v>
       </c>
       <c r="O89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P89" t="s">
         <v>30</v>
@@ -5927,7 +5930,7 @@
         <v>30</v>
       </c>
       <c r="O90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P90" t="s">
         <v>30</v>
@@ -6015,7 +6018,7 @@
         <v>30</v>
       </c>
       <c r="O92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P92" t="s">
         <v>30</v>
@@ -6059,7 +6062,7 @@
         <v>30</v>
       </c>
       <c r="O93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P93" t="s">
         <v>30</v>
@@ -6103,7 +6106,7 @@
         <v>30</v>
       </c>
       <c r="O94" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P94" t="s">
         <v>30</v>
@@ -6147,7 +6150,7 @@
         <v>30</v>
       </c>
       <c r="O95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P95" t="s">
         <v>30</v>
@@ -6191,7 +6194,7 @@
         <v>30</v>
       </c>
       <c r="O96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P96" t="s">
         <v>30</v>
@@ -6235,7 +6238,7 @@
         <v>30</v>
       </c>
       <c r="O97" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P97" t="s">
         <v>30</v>
@@ -6279,7 +6282,7 @@
         <v>30</v>
       </c>
       <c r="O98" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P98" t="s">
         <v>30</v>
@@ -6323,7 +6326,7 @@
         <v>30</v>
       </c>
       <c r="O99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P99" t="s">
         <v>30</v>
@@ -6367,7 +6370,7 @@
         <v>30</v>
       </c>
       <c r="O100" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P100" t="s">
         <v>30</v>
@@ -6411,7 +6414,7 @@
         <v>30</v>
       </c>
       <c r="O101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P101" t="s">
         <v>30</v>
@@ -6543,7 +6546,7 @@
         <v>30</v>
       </c>
       <c r="O104" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P104" t="s">
         <v>30</v>
@@ -6587,7 +6590,7 @@
         <v>30</v>
       </c>
       <c r="O105" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P105" t="s">
         <v>30</v>
@@ -6631,7 +6634,7 @@
         <v>30</v>
       </c>
       <c r="O106" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P106" t="s">
         <v>30</v>
@@ -6675,7 +6678,7 @@
         <v>30</v>
       </c>
       <c r="O107" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P107" t="s">
         <v>30</v>
@@ -6719,7 +6722,7 @@
         <v>30</v>
       </c>
       <c r="O108" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P108" t="s">
         <v>30</v>
@@ -6763,7 +6766,7 @@
         <v>30</v>
       </c>
       <c r="O109" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P109" t="s">
         <v>30</v>
@@ -6807,7 +6810,7 @@
         <v>30</v>
       </c>
       <c r="O110" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P110" t="s">
         <v>30</v>
@@ -6851,7 +6854,7 @@
         <v>30</v>
       </c>
       <c r="O111" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P111" t="s">
         <v>30</v>
@@ -6895,7 +6898,7 @@
         <v>30</v>
       </c>
       <c r="O112" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P112" t="s">
         <v>30</v>
@@ -6939,7 +6942,7 @@
         <v>30</v>
       </c>
       <c r="O113" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P113" t="s">
         <v>30</v>
@@ -6983,7 +6986,7 @@
         <v>30</v>
       </c>
       <c r="O114" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P114" t="s">
         <v>30</v>
@@ -7027,7 +7030,7 @@
         <v>30</v>
       </c>
       <c r="O115" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P115" t="s">
         <v>30</v>
@@ -7115,7 +7118,7 @@
         <v>30</v>
       </c>
       <c r="O117" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P117" t="s">
         <v>30</v>
@@ -7159,7 +7162,7 @@
         <v>30</v>
       </c>
       <c r="O118" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P118" t="s">
         <v>30</v>
@@ -7203,7 +7206,7 @@
         <v>30</v>
       </c>
       <c r="O119" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P119" t="s">
         <v>30</v>
@@ -7247,7 +7250,7 @@
         <v>30</v>
       </c>
       <c r="O120" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P120" t="s">
         <v>30</v>
@@ -7291,7 +7294,7 @@
         <v>30</v>
       </c>
       <c r="O121" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P121" t="s">
         <v>30</v>
@@ -7335,7 +7338,7 @@
         <v>30</v>
       </c>
       <c r="O122" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P122" t="s">
         <v>30</v>
@@ -7379,7 +7382,7 @@
         <v>30</v>
       </c>
       <c r="O123" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P123" t="s">
         <v>30</v>
@@ -7423,7 +7426,7 @@
         <v>30</v>
       </c>
       <c r="O124" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P124" t="s">
         <v>30</v>
@@ -7467,7 +7470,7 @@
         <v>30</v>
       </c>
       <c r="O125" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P125" t="s">
         <v>30</v>
@@ -7511,7 +7514,7 @@
         <v>30</v>
       </c>
       <c r="O126" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P126" t="s">
         <v>30</v>
@@ -7555,7 +7558,7 @@
         <v>30</v>
       </c>
       <c r="O127" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P127" t="s">
         <v>30</v>
@@ -7599,7 +7602,7 @@
         <v>30</v>
       </c>
       <c r="O128" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P128" t="s">
         <v>30</v>
@@ -7687,7 +7690,7 @@
         <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P130" t="s">
         <v>30</v>
@@ -7731,7 +7734,7 @@
         <v>30</v>
       </c>
       <c r="O131" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P131" t="s">
         <v>30</v>
@@ -7775,7 +7778,7 @@
         <v>30</v>
       </c>
       <c r="O132" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P132" t="s">
         <v>30</v>
@@ -7819,7 +7822,7 @@
         <v>30</v>
       </c>
       <c r="O133" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P133" t="s">
         <v>30</v>
@@ -7907,7 +7910,7 @@
         <v>30</v>
       </c>
       <c r="O135" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P135" t="s">
         <v>30</v>
@@ -7951,7 +7954,7 @@
         <v>30</v>
       </c>
       <c r="O136" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P136" t="s">
         <v>30</v>
@@ -7995,7 +7998,7 @@
         <v>30</v>
       </c>
       <c r="O137" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P137" t="s">
         <v>30</v>
@@ -8039,7 +8042,7 @@
         <v>30</v>
       </c>
       <c r="O138" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P138" t="s">
         <v>30</v>
@@ -8083,7 +8086,7 @@
         <v>30</v>
       </c>
       <c r="O139" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P139" t="s">
         <v>30</v>
@@ -8111,7 +8114,7 @@
       </c>
       <c r="H140" t="s"/>
       <c r="I140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J140" t="s"/>
       <c r="K140" t="n">
@@ -8127,7 +8130,7 @@
         <v>30</v>
       </c>
       <c r="O140" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P140" t="s">
         <v>30</v>
@@ -8155,7 +8158,7 @@
       </c>
       <c r="H141" t="s"/>
       <c r="I141" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J141" t="s"/>
       <c r="K141" t="n">
@@ -8171,7 +8174,7 @@
         <v>30</v>
       </c>
       <c r="O141" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P141" t="s">
         <v>30</v>
@@ -8215,7 +8218,7 @@
         <v>30</v>
       </c>
       <c r="O142" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P142" t="s">
         <v>30</v>
@@ -8259,7 +8262,7 @@
         <v>30</v>
       </c>
       <c r="O143" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="P143" t="s">
         <v>30</v>
@@ -8276,14 +8279,14 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E144" t="s"/>
       <c r="F144" t="s">
         <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H144" t="s"/>
       <c r="I144" t="s">
@@ -8303,7 +8306,7 @@
         <v>30</v>
       </c>
       <c r="O144" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P144" t="s">
         <v>30</v>
@@ -8320,18 +8323,18 @@
         <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E145" t="s"/>
       <c r="F145" t="s">
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H145" t="s"/>
       <c r="I145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J145" t="s"/>
       <c r="K145" t="n">
@@ -8347,10 +8350,10 @@
         <v>30</v>
       </c>
       <c r="O145" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8375,7 +8378,7 @@
       </c>
       <c r="H146" t="s"/>
       <c r="I146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J146" t="s"/>
       <c r="K146" t="n">
@@ -8391,10 +8394,10 @@
         <v>30</v>
       </c>
       <c r="O146" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P146" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8435,7 +8438,7 @@
         <v>30</v>
       </c>
       <c r="O147" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="P147" t="s">
         <v>34</v>
@@ -8479,7 +8482,7 @@
         <v>30</v>
       </c>
       <c r="O148" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P148" t="s">
         <v>34</v>
@@ -8523,7 +8526,7 @@
         <v>30</v>
       </c>
       <c r="O149" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P149" t="s">
         <v>34</v>
@@ -8567,7 +8570,7 @@
         <v>30</v>
       </c>
       <c r="O150" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P150" t="s">
         <v>34</v>
@@ -8611,7 +8614,7 @@
         <v>30</v>
       </c>
       <c r="O151" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="P151" t="s">
         <v>34</v>
@@ -8655,7 +8658,7 @@
         <v>30</v>
       </c>
       <c r="O152" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P152" t="s">
         <v>34</v>
@@ -8699,7 +8702,7 @@
         <v>30</v>
       </c>
       <c r="O153" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P153" t="s">
         <v>34</v>
@@ -8743,7 +8746,7 @@
         <v>30</v>
       </c>
       <c r="O154" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P154" t="s">
         <v>34</v>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="H155" t="s"/>
       <c r="I155" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J155" t="s"/>
       <c r="K155" t="n">
@@ -8787,10 +8790,10 @@
         <v>30</v>
       </c>
       <c r="O155" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="P155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8815,7 +8818,7 @@
       </c>
       <c r="H156" t="s"/>
       <c r="I156" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s"/>
       <c r="K156" t="n">
@@ -8831,10 +8834,10 @@
         <v>30</v>
       </c>
       <c r="O156" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8875,7 +8878,7 @@
         <v>30</v>
       </c>
       <c r="O157" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P157" t="s">
         <v>30</v>
@@ -8919,7 +8922,7 @@
         <v>30</v>
       </c>
       <c r="O158" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P158" t="s">
         <v>30</v>
@@ -8963,7 +8966,7 @@
         <v>30</v>
       </c>
       <c r="O159" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P159" t="s">
         <v>30</v>
@@ -9007,7 +9010,7 @@
         <v>30</v>
       </c>
       <c r="O160" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P160" t="s">
         <v>30</v>
@@ -9051,7 +9054,7 @@
         <v>30</v>
       </c>
       <c r="O161" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P161" t="s">
         <v>30</v>
@@ -9095,7 +9098,7 @@
         <v>30</v>
       </c>
       <c r="O162" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P162" t="s">
         <v>30</v>
@@ -9139,7 +9142,7 @@
         <v>30</v>
       </c>
       <c r="O163" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P163" t="s">
         <v>30</v>
@@ -9183,7 +9186,7 @@
         <v>30</v>
       </c>
       <c r="O164" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P164" t="s">
         <v>30</v>
@@ -9227,7 +9230,7 @@
         <v>30</v>
       </c>
       <c r="O165" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P165" t="s">
         <v>30</v>
@@ -9271,7 +9274,7 @@
         <v>30</v>
       </c>
       <c r="O166" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P166" t="s">
         <v>30</v>
@@ -9315,7 +9318,7 @@
         <v>30</v>
       </c>
       <c r="O167" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P167" t="s">
         <v>30</v>
@@ -9359,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="O168" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P168" t="s">
         <v>30</v>
@@ -9403,7 +9406,7 @@
         <v>30</v>
       </c>
       <c r="O169" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P169" t="s">
         <v>30</v>
@@ -9447,7 +9450,7 @@
         <v>30</v>
       </c>
       <c r="O170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P170" t="s">
         <v>30</v>
@@ -9491,7 +9494,7 @@
         <v>30</v>
       </c>
       <c r="O171" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P171" t="s">
         <v>30</v>
@@ -9535,7 +9538,7 @@
         <v>30</v>
       </c>
       <c r="O172" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P172" t="s">
         <v>30</v>
@@ -9579,7 +9582,7 @@
         <v>30</v>
       </c>
       <c r="O173" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P173" t="s">
         <v>30</v>
@@ -9623,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="O174" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P174" t="s">
         <v>30</v>
@@ -9667,7 +9670,7 @@
         <v>30</v>
       </c>
       <c r="O175" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P175" t="s">
         <v>30</v>
@@ -9711,7 +9714,7 @@
         <v>30</v>
       </c>
       <c r="O176" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P176" t="s">
         <v>30</v>
@@ -9755,7 +9758,7 @@
         <v>30</v>
       </c>
       <c r="O177" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P177" t="s">
         <v>30</v>
@@ -9799,7 +9802,7 @@
         <v>30</v>
       </c>
       <c r="O178" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P178" t="s">
         <v>30</v>
@@ -9843,7 +9846,7 @@
         <v>30</v>
       </c>
       <c r="O179" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P179" t="s">
         <v>30</v>
@@ -9887,7 +9890,7 @@
         <v>30</v>
       </c>
       <c r="O180" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P180" t="s">
         <v>30</v>
@@ -9931,7 +9934,7 @@
         <v>30</v>
       </c>
       <c r="O181" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P181" t="s">
         <v>30</v>
@@ -10019,7 +10022,7 @@
         <v>30</v>
       </c>
       <c r="O183" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P183" t="s">
         <v>30</v>
@@ -10063,7 +10066,7 @@
         <v>30</v>
       </c>
       <c r="O184" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P184" t="s">
         <v>30</v>
@@ -10107,7 +10110,7 @@
         <v>30</v>
       </c>
       <c r="O185" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P185" t="s">
         <v>30</v>
@@ -10151,7 +10154,7 @@
         <v>30</v>
       </c>
       <c r="O186" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P186" t="s">
         <v>30</v>
@@ -10195,7 +10198,7 @@
         <v>30</v>
       </c>
       <c r="O187" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P187" t="s">
         <v>30</v>
@@ -10327,7 +10330,7 @@
         <v>30</v>
       </c>
       <c r="O190" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P190" t="s">
         <v>30</v>
@@ -10371,7 +10374,7 @@
         <v>30</v>
       </c>
       <c r="O191" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P191" t="s">
         <v>30</v>
@@ -10415,7 +10418,7 @@
         <v>30</v>
       </c>
       <c r="O192" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P192" t="s">
         <v>30</v>
@@ -10459,7 +10462,7 @@
         <v>30</v>
       </c>
       <c r="O193" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P193" t="s">
         <v>30</v>
@@ -10503,7 +10506,7 @@
         <v>30</v>
       </c>
       <c r="O194" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P194" t="s">
         <v>30</v>
@@ -10547,7 +10550,7 @@
         <v>30</v>
       </c>
       <c r="O195" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P195" t="s">
         <v>30</v>
@@ -10591,7 +10594,7 @@
         <v>30</v>
       </c>
       <c r="O196" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P196" t="s">
         <v>30</v>
@@ -10635,7 +10638,7 @@
         <v>30</v>
       </c>
       <c r="O197" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P197" t="s">
         <v>30</v>
@@ -10679,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="O198" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P198" t="s">
         <v>30</v>
@@ -10723,7 +10726,7 @@
         <v>30</v>
       </c>
       <c r="O199" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P199" t="s">
         <v>30</v>
@@ -10767,7 +10770,7 @@
         <v>30</v>
       </c>
       <c r="O200" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P200" t="s">
         <v>30</v>
@@ -10811,7 +10814,7 @@
         <v>30</v>
       </c>
       <c r="O201" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P201" t="s">
         <v>30</v>
@@ -10855,7 +10858,7 @@
         <v>30</v>
       </c>
       <c r="O202" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P202" t="s">
         <v>30</v>
@@ -10899,7 +10902,7 @@
         <v>30</v>
       </c>
       <c r="O203" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P203" t="s">
         <v>30</v>
@@ -10943,7 +10946,7 @@
         <v>30</v>
       </c>
       <c r="O204" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P204" t="s">
         <v>30</v>
@@ -10987,7 +10990,7 @@
         <v>30</v>
       </c>
       <c r="O205" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P205" t="s">
         <v>30</v>
@@ -11031,7 +11034,7 @@
         <v>30</v>
       </c>
       <c r="O206" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P206" t="s">
         <v>30</v>
@@ -11075,7 +11078,7 @@
         <v>30</v>
       </c>
       <c r="O207" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P207" t="s">
         <v>30</v>
@@ -11119,7 +11122,7 @@
         <v>30</v>
       </c>
       <c r="O208" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P208" t="s">
         <v>30</v>
@@ -11163,7 +11166,7 @@
         <v>30</v>
       </c>
       <c r="O209" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P209" t="s">
         <v>30</v>
@@ -11207,7 +11210,7 @@
         <v>30</v>
       </c>
       <c r="O210" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P210" t="s">
         <v>30</v>
@@ -11295,7 +11298,7 @@
         <v>30</v>
       </c>
       <c r="O212" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P212" t="s">
         <v>30</v>
@@ -11339,7 +11342,7 @@
         <v>30</v>
       </c>
       <c r="O213" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P213" t="s">
         <v>30</v>
@@ -11383,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="O214" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P214" t="s">
         <v>30</v>
@@ -11427,7 +11430,7 @@
         <v>30</v>
       </c>
       <c r="O215" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P215" t="s">
         <v>30</v>
@@ -11471,7 +11474,7 @@
         <v>30</v>
       </c>
       <c r="O216" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P216" t="s">
         <v>30</v>
@@ -11515,7 +11518,7 @@
         <v>30</v>
       </c>
       <c r="O217" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P217" t="s">
         <v>30</v>
@@ -11559,7 +11562,7 @@
         <v>30</v>
       </c>
       <c r="O218" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P218" t="s">
         <v>30</v>
@@ -11603,7 +11606,7 @@
         <v>30</v>
       </c>
       <c r="O219" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P219" t="s">
         <v>30</v>
@@ -11647,7 +11650,7 @@
         <v>30</v>
       </c>
       <c r="O220" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P220" t="s">
         <v>30</v>
@@ -11691,7 +11694,7 @@
         <v>30</v>
       </c>
       <c r="O221" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P221" t="s">
         <v>30</v>
@@ -11735,7 +11738,7 @@
         <v>30</v>
       </c>
       <c r="O222" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P222" t="s">
         <v>30</v>
@@ -11823,7 +11826,7 @@
         <v>30</v>
       </c>
       <c r="O224" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P224" t="s">
         <v>30</v>
@@ -11867,7 +11870,7 @@
         <v>30</v>
       </c>
       <c r="O225" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P225" t="s">
         <v>30</v>
@@ -11911,7 +11914,7 @@
         <v>30</v>
       </c>
       <c r="O226" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P226" t="s">
         <v>30</v>
@@ -11999,7 +12002,7 @@
         <v>30</v>
       </c>
       <c r="O228" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P228" t="s">
         <v>34</v>
@@ -12087,7 +12090,7 @@
         <v>30</v>
       </c>
       <c r="O230" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P230" t="s">
         <v>30</v>
@@ -12131,7 +12134,7 @@
         <v>30</v>
       </c>
       <c r="O231" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P231" t="s">
         <v>30</v>
@@ -12175,7 +12178,7 @@
         <v>30</v>
       </c>
       <c r="O232" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P232" t="s">
         <v>30</v>
@@ -12219,7 +12222,7 @@
         <v>30</v>
       </c>
       <c r="O233" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P233" t="s">
         <v>30</v>
@@ -12263,7 +12266,7 @@
         <v>30</v>
       </c>
       <c r="O234" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P234" t="s">
         <v>30</v>
@@ -12307,7 +12310,7 @@
         <v>30</v>
       </c>
       <c r="O235" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P235" t="s">
         <v>30</v>
@@ -12395,7 +12398,7 @@
         <v>30</v>
       </c>
       <c r="O237" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P237" t="s">
         <v>34</v>
@@ -12439,7 +12442,7 @@
         <v>30</v>
       </c>
       <c r="O238" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P238" t="s">
         <v>34</v>
@@ -12483,7 +12486,7 @@
         <v>30</v>
       </c>
       <c r="O239" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P239" t="s">
         <v>30</v>
@@ -12527,7 +12530,7 @@
         <v>30</v>
       </c>
       <c r="O240" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P240" t="s">
         <v>30</v>
@@ -12571,7 +12574,7 @@
         <v>30</v>
       </c>
       <c r="O241" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P241" t="s">
         <v>30</v>
@@ -12703,7 +12706,7 @@
         <v>30</v>
       </c>
       <c r="O244" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P244" t="s">
         <v>30</v>
@@ -12879,7 +12882,7 @@
         <v>30</v>
       </c>
       <c r="O248" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P248" t="s">
         <v>34</v>
@@ -12907,7 +12910,7 @@
       </c>
       <c r="H249" t="s"/>
       <c r="I249" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J249" t="s"/>
       <c r="K249" t="n">
@@ -12923,7 +12926,7 @@
         <v>30</v>
       </c>
       <c r="O249" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P249" t="s">
         <v>34</v>
@@ -12951,7 +12954,7 @@
       </c>
       <c r="H250" t="s"/>
       <c r="I250" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J250" t="s"/>
       <c r="K250" t="n">
@@ -12967,7 +12970,7 @@
         <v>30</v>
       </c>
       <c r="O250" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P250" t="s">
         <v>34</v>
@@ -13011,7 +13014,7 @@
         <v>30</v>
       </c>
       <c r="O251" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P251" t="s">
         <v>34</v>
@@ -13039,7 +13042,7 @@
       </c>
       <c r="H252" t="s"/>
       <c r="I252" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J252" t="s"/>
       <c r="K252" t="n">
@@ -13055,7 +13058,7 @@
         <v>30</v>
       </c>
       <c r="O252" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P252" t="s">
         <v>34</v>
@@ -13143,7 +13146,7 @@
         <v>30</v>
       </c>
       <c r="O254" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P254" t="s">
         <v>34</v>
@@ -13171,7 +13174,7 @@
       </c>
       <c r="H255" t="s"/>
       <c r="I255" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J255" t="s"/>
       <c r="K255" t="n">
@@ -13187,7 +13190,7 @@
         <v>30</v>
       </c>
       <c r="O255" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P255" t="s">
         <v>34</v>
@@ -13215,7 +13218,7 @@
       </c>
       <c r="H256" t="s"/>
       <c r="I256" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J256" t="s"/>
       <c r="K256" t="n">
@@ -13231,7 +13234,7 @@
         <v>30</v>
       </c>
       <c r="O256" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P256" t="s">
         <v>34</v>
@@ -13275,7 +13278,7 @@
         <v>30</v>
       </c>
       <c r="O257" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P257" t="s">
         <v>34</v>
@@ -13303,7 +13306,7 @@
       </c>
       <c r="H258" t="s"/>
       <c r="I258" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J258" t="s"/>
       <c r="K258" t="n">
@@ -13319,7 +13322,7 @@
         <v>30</v>
       </c>
       <c r="O258" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P258" t="s">
         <v>34</v>
@@ -13347,7 +13350,7 @@
       </c>
       <c r="H259" t="s"/>
       <c r="I259" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J259" t="s"/>
       <c r="K259" t="n">
@@ -13363,7 +13366,7 @@
         <v>30</v>
       </c>
       <c r="O259" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P259" t="s">
         <v>34</v>
@@ -13407,7 +13410,7 @@
         <v>30</v>
       </c>
       <c r="O260" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P260" t="s">
         <v>34</v>
@@ -13451,7 +13454,7 @@
         <v>30</v>
       </c>
       <c r="O261" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P261" t="s">
         <v>34</v>
@@ -13495,7 +13498,7 @@
         <v>30</v>
       </c>
       <c r="O262" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="P262" t="s">
         <v>34</v>
@@ -13583,7 +13586,7 @@
         <v>30</v>
       </c>
       <c r="O264" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P264" t="s">
         <v>30</v>
@@ -13627,7 +13630,7 @@
         <v>30</v>
       </c>
       <c r="O265" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P265" t="s">
         <v>30</v>
@@ -13671,7 +13674,7 @@
         <v>30</v>
       </c>
       <c r="O266" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P266" t="s">
         <v>30</v>
@@ -13715,7 +13718,7 @@
         <v>30</v>
       </c>
       <c r="O267" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P267" t="s">
         <v>30</v>
@@ -13759,7 +13762,7 @@
         <v>30</v>
       </c>
       <c r="O268" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P268" t="s">
         <v>30</v>
@@ -13787,7 +13790,7 @@
       </c>
       <c r="H269" t="s"/>
       <c r="I269" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J269" t="s"/>
       <c r="K269" t="n">
@@ -13803,7 +13806,7 @@
         <v>30</v>
       </c>
       <c r="O269" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P269" t="s">
         <v>30</v>
@@ -13831,7 +13834,7 @@
       </c>
       <c r="H270" t="s"/>
       <c r="I270" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J270" t="s"/>
       <c r="K270" t="n">
@@ -13847,7 +13850,7 @@
         <v>30</v>
       </c>
       <c r="O270" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P270" t="s">
         <v>30</v>
@@ -13875,7 +13878,7 @@
       </c>
       <c r="H271" t="s"/>
       <c r="I271" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J271" t="s"/>
       <c r="K271" t="n">
@@ -13891,7 +13894,7 @@
         <v>30</v>
       </c>
       <c r="O271" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P271" t="s">
         <v>30</v>
@@ -13919,7 +13922,7 @@
       </c>
       <c r="H272" t="s"/>
       <c r="I272" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J272" t="s"/>
       <c r="K272" t="n">
@@ -13935,7 +13938,7 @@
         <v>30</v>
       </c>
       <c r="O272" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P272" t="s">
         <v>30</v>
@@ -13963,7 +13966,7 @@
       </c>
       <c r="H273" t="s"/>
       <c r="I273" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J273" t="s"/>
       <c r="K273" t="n">
@@ -13979,7 +13982,7 @@
         <v>30</v>
       </c>
       <c r="O273" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P273" t="s">
         <v>30</v>
@@ -14007,7 +14010,7 @@
       </c>
       <c r="H274" t="s"/>
       <c r="I274" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J274" t="s"/>
       <c r="K274" t="n">
@@ -14023,7 +14026,7 @@
         <v>30</v>
       </c>
       <c r="O274" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P274" t="s">
         <v>30</v>
@@ -14051,7 +14054,7 @@
       </c>
       <c r="H275" t="s"/>
       <c r="I275" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J275" t="s"/>
       <c r="K275" t="n">
@@ -14095,7 +14098,7 @@
       </c>
       <c r="H276" t="s"/>
       <c r="I276" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J276" t="s"/>
       <c r="K276" t="n">
@@ -14111,7 +14114,7 @@
         <v>30</v>
       </c>
       <c r="O276" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P276" t="s">
         <v>30</v>
@@ -14139,7 +14142,7 @@
       </c>
       <c r="H277" t="s"/>
       <c r="I277" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J277" t="s"/>
       <c r="K277" t="n">
@@ -14155,7 +14158,7 @@
         <v>30</v>
       </c>
       <c r="O277" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P277" t="s">
         <v>30</v>
@@ -14183,7 +14186,7 @@
       </c>
       <c r="H278" t="s"/>
       <c r="I278" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J278" t="s"/>
       <c r="K278" t="n">
@@ -14199,7 +14202,7 @@
         <v>30</v>
       </c>
       <c r="O278" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P278" t="s">
         <v>30</v>
@@ -14227,7 +14230,7 @@
       </c>
       <c r="H279" t="s"/>
       <c r="I279" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J279" t="s"/>
       <c r="K279" t="n">
@@ -14243,7 +14246,7 @@
         <v>30</v>
       </c>
       <c r="O279" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P279" t="s">
         <v>30</v>
@@ -14271,7 +14274,7 @@
       </c>
       <c r="H280" t="s"/>
       <c r="I280" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J280" t="s"/>
       <c r="K280" t="n">
@@ -14287,7 +14290,7 @@
         <v>30</v>
       </c>
       <c r="O280" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P280" t="s">
         <v>30</v>
@@ -14315,7 +14318,7 @@
       </c>
       <c r="H281" t="s"/>
       <c r="I281" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J281" t="s"/>
       <c r="K281" t="n">
@@ -14331,7 +14334,7 @@
         <v>30</v>
       </c>
       <c r="O281" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P281" t="s">
         <v>30</v>
@@ -14359,7 +14362,7 @@
       </c>
       <c r="H282" t="s"/>
       <c r="I282" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J282" t="s"/>
       <c r="K282" t="n">
@@ -14375,7 +14378,7 @@
         <v>30</v>
       </c>
       <c r="O282" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P282" t="s">
         <v>30</v>
@@ -14403,7 +14406,7 @@
       </c>
       <c r="H283" t="s"/>
       <c r="I283" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J283" t="s"/>
       <c r="K283" t="n">
@@ -14419,7 +14422,7 @@
         <v>30</v>
       </c>
       <c r="O283" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P283" t="s">
         <v>30</v>
@@ -14447,7 +14450,7 @@
       </c>
       <c r="H284" t="s"/>
       <c r="I284" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J284" t="s"/>
       <c r="K284" t="n">
@@ -14463,7 +14466,7 @@
         <v>30</v>
       </c>
       <c r="O284" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P284" t="s">
         <v>30</v>
@@ -14491,7 +14494,7 @@
       </c>
       <c r="H285" t="s"/>
       <c r="I285" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J285" t="s"/>
       <c r="K285" t="n">
@@ -14507,7 +14510,7 @@
         <v>30</v>
       </c>
       <c r="O285" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P285" t="s">
         <v>30</v>
@@ -14535,7 +14538,7 @@
       </c>
       <c r="H286" t="s"/>
       <c r="I286" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J286" t="s"/>
       <c r="K286" t="n">
@@ -14551,7 +14554,7 @@
         <v>30</v>
       </c>
       <c r="O286" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P286" t="s">
         <v>30</v>
@@ -14579,7 +14582,7 @@
       </c>
       <c r="H287" t="s"/>
       <c r="I287" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J287" t="s"/>
       <c r="K287" t="n">
@@ -14595,7 +14598,7 @@
         <v>30</v>
       </c>
       <c r="O287" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P287" t="s">
         <v>30</v>
@@ -14623,7 +14626,7 @@
       </c>
       <c r="H288" t="s"/>
       <c r="I288" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J288" t="s"/>
       <c r="K288" t="n">
@@ -14639,7 +14642,7 @@
         <v>30</v>
       </c>
       <c r="O288" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P288" t="s">
         <v>30</v>
@@ -14667,7 +14670,7 @@
       </c>
       <c r="H289" t="s"/>
       <c r="I289" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J289" t="s"/>
       <c r="K289" t="n">
@@ -14683,7 +14686,7 @@
         <v>30</v>
       </c>
       <c r="O289" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P289" t="s">
         <v>30</v>
@@ -14711,7 +14714,7 @@
       </c>
       <c r="H290" t="s"/>
       <c r="I290" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J290" t="s"/>
       <c r="K290" t="n">
@@ -14727,7 +14730,7 @@
         <v>30</v>
       </c>
       <c r="O290" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P290" t="s">
         <v>30</v>
@@ -14755,7 +14758,7 @@
       </c>
       <c r="H291" t="s"/>
       <c r="I291" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J291" t="s"/>
       <c r="K291" t="n">
@@ -14771,7 +14774,7 @@
         <v>30</v>
       </c>
       <c r="O291" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P291" t="s">
         <v>30</v>
@@ -14799,7 +14802,7 @@
       </c>
       <c r="H292" t="s"/>
       <c r="I292" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J292" t="s"/>
       <c r="K292" t="n">
@@ -14815,7 +14818,7 @@
         <v>30</v>
       </c>
       <c r="O292" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P292" t="s">
         <v>30</v>
@@ -14843,7 +14846,7 @@
       </c>
       <c r="H293" t="s"/>
       <c r="I293" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J293" t="s"/>
       <c r="K293" t="n">
@@ -14859,7 +14862,7 @@
         <v>30</v>
       </c>
       <c r="O293" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P293" t="s">
         <v>30</v>
@@ -14887,7 +14890,7 @@
       </c>
       <c r="H294" t="s"/>
       <c r="I294" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J294" t="s"/>
       <c r="K294" t="n">
@@ -14931,7 +14934,7 @@
       </c>
       <c r="H295" t="s"/>
       <c r="I295" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J295" t="s"/>
       <c r="K295" t="n">
@@ -14947,7 +14950,7 @@
         <v>30</v>
       </c>
       <c r="O295" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P295" t="s">
         <v>30</v>
@@ -14975,7 +14978,7 @@
       </c>
       <c r="H296" t="s"/>
       <c r="I296" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J296" t="s"/>
       <c r="K296" t="n">
@@ -14991,7 +14994,7 @@
         <v>30</v>
       </c>
       <c r="O296" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P296" t="s">
         <v>30</v>
@@ -15019,7 +15022,7 @@
       </c>
       <c r="H297" t="s"/>
       <c r="I297" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J297" t="s"/>
       <c r="K297" t="n">
@@ -15035,7 +15038,7 @@
         <v>30</v>
       </c>
       <c r="O297" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P297" t="s">
         <v>30</v>
@@ -15063,7 +15066,7 @@
       </c>
       <c r="H298" t="s"/>
       <c r="I298" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J298" t="s"/>
       <c r="K298" t="n">
@@ -15079,7 +15082,7 @@
         <v>30</v>
       </c>
       <c r="O298" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P298" t="s">
         <v>30</v>
@@ -15107,7 +15110,7 @@
       </c>
       <c r="H299" t="s"/>
       <c r="I299" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J299" t="s"/>
       <c r="K299" t="n">
@@ -15123,7 +15126,7 @@
         <v>30</v>
       </c>
       <c r="O299" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P299" t="s">
         <v>30</v>
@@ -15151,7 +15154,7 @@
       </c>
       <c r="H300" t="s"/>
       <c r="I300" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J300" t="s"/>
       <c r="K300" t="n">
@@ -15167,7 +15170,7 @@
         <v>30</v>
       </c>
       <c r="O300" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P300" t="s">
         <v>30</v>
@@ -15195,7 +15198,7 @@
       </c>
       <c r="H301" t="s"/>
       <c r="I301" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J301" t="s"/>
       <c r="K301" t="n">
@@ -15211,7 +15214,7 @@
         <v>30</v>
       </c>
       <c r="O301" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P301" t="s">
         <v>30</v>
@@ -15239,7 +15242,7 @@
       </c>
       <c r="H302" t="s"/>
       <c r="I302" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J302" t="s"/>
       <c r="K302" t="n">
@@ -15255,7 +15258,7 @@
         <v>30</v>
       </c>
       <c r="O302" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P302" t="s">
         <v>30</v>
@@ -15283,7 +15286,7 @@
       </c>
       <c r="H303" t="s"/>
       <c r="I303" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J303" t="s"/>
       <c r="K303" t="n">
@@ -15299,7 +15302,7 @@
         <v>30</v>
       </c>
       <c r="O303" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P303" t="s">
         <v>30</v>
@@ -15327,7 +15330,7 @@
       </c>
       <c r="H304" t="s"/>
       <c r="I304" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J304" t="s"/>
       <c r="K304" t="n">
@@ -15343,7 +15346,7 @@
         <v>30</v>
       </c>
       <c r="O304" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P304" t="s">
         <v>30</v>
@@ -15371,7 +15374,7 @@
       </c>
       <c r="H305" t="s"/>
       <c r="I305" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J305" t="s"/>
       <c r="K305" t="n">
@@ -15387,7 +15390,7 @@
         <v>30</v>
       </c>
       <c r="O305" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P305" t="s">
         <v>30</v>
@@ -15415,7 +15418,7 @@
       </c>
       <c r="H306" t="s"/>
       <c r="I306" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J306" t="s"/>
       <c r="K306" t="n">
@@ -15431,7 +15434,7 @@
         <v>30</v>
       </c>
       <c r="O306" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P306" t="s">
         <v>30</v>
@@ -15459,7 +15462,7 @@
       </c>
       <c r="H307" t="s"/>
       <c r="I307" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J307" t="s"/>
       <c r="K307" t="n">
@@ -15475,7 +15478,7 @@
         <v>30</v>
       </c>
       <c r="O307" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="P307" t="s">
         <v>30</v>
@@ -15503,7 +15506,7 @@
       </c>
       <c r="H308" t="s"/>
       <c r="I308" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J308" t="s"/>
       <c r="K308" t="n">
@@ -15519,7 +15522,7 @@
         <v>30</v>
       </c>
       <c r="O308" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="P308" t="s">
         <v>30</v>
@@ -15547,7 +15550,7 @@
       </c>
       <c r="H309" t="s"/>
       <c r="I309" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J309" t="s"/>
       <c r="K309" t="n">
@@ -15563,7 +15566,7 @@
         <v>30</v>
       </c>
       <c r="O309" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P309" t="s">
         <v>30</v>
@@ -15591,7 +15594,7 @@
       </c>
       <c r="H310" t="s"/>
       <c r="I310" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J310" t="s"/>
       <c r="K310" t="n">
@@ -15607,7 +15610,7 @@
         <v>30</v>
       </c>
       <c r="O310" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P310" t="s">
         <v>30</v>
@@ -15635,7 +15638,7 @@
       </c>
       <c r="H311" t="s"/>
       <c r="I311" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J311" t="s"/>
       <c r="K311" t="n">
@@ -15651,7 +15654,7 @@
         <v>30</v>
       </c>
       <c r="O311" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P311" t="s">
         <v>30</v>
@@ -15679,7 +15682,7 @@
       </c>
       <c r="H312" t="s"/>
       <c r="I312" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J312" t="s"/>
       <c r="K312" t="n">
@@ -15695,7 +15698,7 @@
         <v>30</v>
       </c>
       <c r="O312" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="P312" t="s">
         <v>30</v>
@@ -15723,7 +15726,7 @@
       </c>
       <c r="H313" t="s"/>
       <c r="I313" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J313" t="s"/>
       <c r="K313" t="n">
@@ -15739,7 +15742,7 @@
         <v>30</v>
       </c>
       <c r="O313" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P313" t="s">
         <v>30</v>
@@ -15767,7 +15770,7 @@
       </c>
       <c r="H314" t="s"/>
       <c r="I314" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J314" t="s"/>
       <c r="K314" t="n">
@@ -15783,7 +15786,7 @@
         <v>30</v>
       </c>
       <c r="O314" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P314" t="s">
         <v>30</v>
@@ -15811,7 +15814,7 @@
       </c>
       <c r="H315" t="s"/>
       <c r="I315" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J315" t="s"/>
       <c r="K315" t="n">
@@ -15827,7 +15830,7 @@
         <v>30</v>
       </c>
       <c r="O315" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P315" t="s">
         <v>30</v>
@@ -15855,7 +15858,7 @@
       </c>
       <c r="H316" t="s"/>
       <c r="I316" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J316" t="s"/>
       <c r="K316" t="n">
@@ -15871,7 +15874,7 @@
         <v>30</v>
       </c>
       <c r="O316" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P316" t="s">
         <v>30</v>
@@ -15899,7 +15902,7 @@
       </c>
       <c r="H317" t="s"/>
       <c r="I317" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J317" t="s"/>
       <c r="K317" t="n">
@@ -15915,7 +15918,7 @@
         <v>30</v>
       </c>
       <c r="O317" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P317" t="s">
         <v>30</v>
@@ -15943,7 +15946,7 @@
       </c>
       <c r="H318" t="s"/>
       <c r="I318" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J318" t="s"/>
       <c r="K318" t="n">
@@ -15959,7 +15962,7 @@
         <v>30</v>
       </c>
       <c r="O318" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P318" t="s">
         <v>30</v>
@@ -15987,7 +15990,7 @@
       </c>
       <c r="H319" t="s"/>
       <c r="I319" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J319" t="s"/>
       <c r="K319" t="n">
@@ -16003,7 +16006,7 @@
         <v>30</v>
       </c>
       <c r="O319" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P319" t="s">
         <v>30</v>
@@ -16031,7 +16034,7 @@
       </c>
       <c r="H320" t="s"/>
       <c r="I320" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J320" t="s"/>
       <c r="K320" t="n">
@@ -16047,7 +16050,7 @@
         <v>30</v>
       </c>
       <c r="O320" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="P320" t="s">
         <v>30</v>
@@ -16075,7 +16078,7 @@
       </c>
       <c r="H321" t="s"/>
       <c r="I321" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J321" t="s"/>
       <c r="K321" t="n">
@@ -16091,7 +16094,7 @@
         <v>30</v>
       </c>
       <c r="O321" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P321" t="s">
         <v>30</v>
@@ -16119,7 +16122,7 @@
       </c>
       <c r="H322" t="s"/>
       <c r="I322" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J322" t="s"/>
       <c r="K322" t="n">
@@ -16135,7 +16138,7 @@
         <v>30</v>
       </c>
       <c r="O322" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P322" t="s">
         <v>30</v>
@@ -16163,7 +16166,7 @@
       </c>
       <c r="H323" t="s"/>
       <c r="I323" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J323" t="s"/>
       <c r="K323" t="n">
@@ -16179,7 +16182,7 @@
         <v>30</v>
       </c>
       <c r="O323" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P323" t="s">
         <v>30</v>
@@ -16207,7 +16210,7 @@
       </c>
       <c r="H324" t="s"/>
       <c r="I324" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J324" t="s"/>
       <c r="K324" t="n">
@@ -16223,7 +16226,7 @@
         <v>30</v>
       </c>
       <c r="O324" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P324" t="s">
         <v>30</v>
@@ -16251,7 +16254,7 @@
       </c>
       <c r="H325" t="s"/>
       <c r="I325" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J325" t="s"/>
       <c r="K325" t="n">
@@ -16267,7 +16270,7 @@
         <v>30</v>
       </c>
       <c r="O325" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P325" t="s">
         <v>30</v>
@@ -16295,7 +16298,7 @@
       </c>
       <c r="H326" t="s"/>
       <c r="I326" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J326" t="s"/>
       <c r="K326" t="n">
@@ -16339,7 +16342,7 @@
       </c>
       <c r="H327" t="s"/>
       <c r="I327" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J327" t="s"/>
       <c r="K327" t="n">
@@ -16355,7 +16358,7 @@
         <v>30</v>
       </c>
       <c r="O327" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P327" t="s">
         <v>30</v>
@@ -16383,7 +16386,7 @@
       </c>
       <c r="H328" t="s"/>
       <c r="I328" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J328" t="s"/>
       <c r="K328" t="n">
@@ -16399,7 +16402,7 @@
         <v>30</v>
       </c>
       <c r="O328" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P328" t="s">
         <v>30</v>
@@ -16427,7 +16430,7 @@
       </c>
       <c r="H329" t="s"/>
       <c r="I329" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J329" t="s"/>
       <c r="K329" t="n">
@@ -16443,7 +16446,7 @@
         <v>30</v>
       </c>
       <c r="O329" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P329" t="s">
         <v>30</v>
@@ -16471,7 +16474,7 @@
       </c>
       <c r="H330" t="s"/>
       <c r="I330" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J330" t="s"/>
       <c r="K330" t="n">
@@ -16487,7 +16490,7 @@
         <v>30</v>
       </c>
       <c r="O330" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P330" t="s">
         <v>30</v>
@@ -16515,7 +16518,7 @@
       </c>
       <c r="H331" t="s"/>
       <c r="I331" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J331" t="s"/>
       <c r="K331" t="n">
@@ -16531,7 +16534,7 @@
         <v>30</v>
       </c>
       <c r="O331" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P331" t="s">
         <v>30</v>
@@ -16559,7 +16562,7 @@
       </c>
       <c r="H332" t="s"/>
       <c r="I332" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J332" t="s"/>
       <c r="K332" t="n">
@@ -16575,7 +16578,7 @@
         <v>30</v>
       </c>
       <c r="O332" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P332" t="s">
         <v>30</v>
@@ -16603,7 +16606,7 @@
       </c>
       <c r="H333" t="s"/>
       <c r="I333" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J333" t="s"/>
       <c r="K333" t="n">
@@ -16619,7 +16622,7 @@
         <v>30</v>
       </c>
       <c r="O333" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P333" t="s">
         <v>30</v>
@@ -16647,7 +16650,7 @@
       </c>
       <c r="H334" t="s"/>
       <c r="I334" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J334" t="s"/>
       <c r="K334" t="n">
@@ -16663,7 +16666,7 @@
         <v>30</v>
       </c>
       <c r="O334" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P334" t="s">
         <v>30</v>
@@ -16691,7 +16694,7 @@
       </c>
       <c r="H335" t="s"/>
       <c r="I335" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J335" t="s"/>
       <c r="K335" t="n">
@@ -16707,7 +16710,7 @@
         <v>30</v>
       </c>
       <c r="O335" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="P335" t="s">
         <v>30</v>
@@ -16751,7 +16754,7 @@
         <v>30</v>
       </c>
       <c r="O336" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="P336" t="s">
         <v>30</v>
@@ -16779,7 +16782,7 @@
       </c>
       <c r="H337" t="s"/>
       <c r="I337" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J337" t="s"/>
       <c r="K337" t="n">
@@ -16795,10 +16798,10 @@
         <v>30</v>
       </c>
       <c r="O337" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P337" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -16823,7 +16826,7 @@
       </c>
       <c r="H338" t="s"/>
       <c r="I338" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J338" t="s"/>
       <c r="K338" t="n">
@@ -16839,7 +16842,7 @@
         <v>30</v>
       </c>
       <c r="O338" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P338" t="s">
         <v>34</v>
@@ -16867,7 +16870,7 @@
       </c>
       <c r="H339" t="s"/>
       <c r="I339" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J339" t="s"/>
       <c r="K339" t="n">
@@ -16883,7 +16886,7 @@
         <v>30</v>
       </c>
       <c r="O339" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P339" t="s">
         <v>34</v>
@@ -16911,7 +16914,7 @@
       </c>
       <c r="H340" t="s"/>
       <c r="I340" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J340" t="s"/>
       <c r="K340" t="n">
@@ -16927,7 +16930,7 @@
         <v>30</v>
       </c>
       <c r="O340" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P340" t="s">
         <v>34</v>
@@ -16955,7 +16958,7 @@
       </c>
       <c r="H341" t="s"/>
       <c r="I341" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J341" t="s"/>
       <c r="K341" t="n">
@@ -16971,7 +16974,7 @@
         <v>30</v>
       </c>
       <c r="O341" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P341" t="s">
         <v>34</v>
@@ -16999,7 +17002,7 @@
       </c>
       <c r="H342" t="s"/>
       <c r="I342" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J342" t="s"/>
       <c r="K342" t="n">
@@ -17015,7 +17018,7 @@
         <v>30</v>
       </c>
       <c r="O342" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P342" t="s">
         <v>34</v>
@@ -17043,7 +17046,7 @@
       </c>
       <c r="H343" t="s"/>
       <c r="I343" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J343" t="s"/>
       <c r="K343" t="n">
@@ -17059,7 +17062,7 @@
         <v>30</v>
       </c>
       <c r="O343" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P343" t="s">
         <v>34</v>
@@ -17087,7 +17090,7 @@
       </c>
       <c r="H344" t="s"/>
       <c r="I344" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J344" t="s"/>
       <c r="K344" t="n">
@@ -17103,7 +17106,7 @@
         <v>30</v>
       </c>
       <c r="O344" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P344" t="s">
         <v>34</v>
@@ -17131,7 +17134,7 @@
       </c>
       <c r="H345" t="s"/>
       <c r="I345" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J345" t="s"/>
       <c r="K345" t="n">
@@ -17147,7 +17150,7 @@
         <v>30</v>
       </c>
       <c r="O345" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P345" t="s">
         <v>34</v>
@@ -17175,7 +17178,7 @@
       </c>
       <c r="H346" t="s"/>
       <c r="I346" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J346" t="s"/>
       <c r="K346" t="n">
@@ -17191,7 +17194,7 @@
         <v>30</v>
       </c>
       <c r="O346" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P346" t="s">
         <v>34</v>
@@ -17219,7 +17222,7 @@
       </c>
       <c r="H347" t="s"/>
       <c r="I347" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J347" t="s"/>
       <c r="K347" t="n">
@@ -17235,10 +17238,10 @@
         <v>30</v>
       </c>
       <c r="O347" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P347" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -17263,7 +17266,7 @@
       </c>
       <c r="H348" t="s"/>
       <c r="I348" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J348" t="s"/>
       <c r="K348" t="n">
@@ -17279,7 +17282,7 @@
         <v>30</v>
       </c>
       <c r="O348" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P348" t="s">
         <v>30</v>
@@ -17307,7 +17310,7 @@
       </c>
       <c r="H349" t="s"/>
       <c r="I349" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J349" t="s"/>
       <c r="K349" t="n">
@@ -17323,7 +17326,7 @@
         <v>30</v>
       </c>
       <c r="O349" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P349" t="s">
         <v>30</v>
@@ -17351,7 +17354,7 @@
       </c>
       <c r="H350" t="s"/>
       <c r="I350" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J350" t="s"/>
       <c r="K350" t="n">
@@ -17367,7 +17370,7 @@
         <v>30</v>
       </c>
       <c r="O350" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P350" t="s">
         <v>30</v>
@@ -17395,7 +17398,7 @@
       </c>
       <c r="H351" t="s"/>
       <c r="I351" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J351" t="s"/>
       <c r="K351" t="n">
@@ -17411,7 +17414,7 @@
         <v>30</v>
       </c>
       <c r="O351" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P351" t="s">
         <v>30</v>
@@ -17439,7 +17442,7 @@
       </c>
       <c r="H352" t="s"/>
       <c r="I352" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J352" t="s"/>
       <c r="K352" t="n">
@@ -17455,7 +17458,7 @@
         <v>30</v>
       </c>
       <c r="O352" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P352" t="s">
         <v>30</v>
@@ -17483,7 +17486,7 @@
       </c>
       <c r="H353" t="s"/>
       <c r="I353" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J353" t="s"/>
       <c r="K353" t="n">
@@ -17499,7 +17502,7 @@
         <v>30</v>
       </c>
       <c r="O353" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P353" t="s">
         <v>30</v>
@@ -17527,7 +17530,7 @@
       </c>
       <c r="H354" t="s"/>
       <c r="I354" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J354" t="s"/>
       <c r="K354" t="n">
@@ -17543,7 +17546,7 @@
         <v>30</v>
       </c>
       <c r="O354" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P354" t="s">
         <v>30</v>
@@ -17571,7 +17574,7 @@
       </c>
       <c r="H355" t="s"/>
       <c r="I355" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J355" t="s"/>
       <c r="K355" t="n">
@@ -17587,7 +17590,7 @@
         <v>30</v>
       </c>
       <c r="O355" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P355" t="s">
         <v>30</v>
@@ -17615,7 +17618,7 @@
       </c>
       <c r="H356" t="s"/>
       <c r="I356" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J356" t="s"/>
       <c r="K356" t="n">
@@ -17631,7 +17634,7 @@
         <v>30</v>
       </c>
       <c r="O356" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P356" t="s">
         <v>30</v>
@@ -17659,7 +17662,7 @@
       </c>
       <c r="H357" t="s"/>
       <c r="I357" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J357" t="s"/>
       <c r="K357" t="n">
@@ -17675,7 +17678,7 @@
         <v>30</v>
       </c>
       <c r="O357" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P357" t="s">
         <v>30</v>
@@ -17703,7 +17706,7 @@
       </c>
       <c r="H358" t="s"/>
       <c r="I358" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J358" t="s"/>
       <c r="K358" t="n">
@@ -17719,7 +17722,7 @@
         <v>30</v>
       </c>
       <c r="O358" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P358" t="s">
         <v>30</v>
@@ -17747,7 +17750,7 @@
       </c>
       <c r="H359" t="s"/>
       <c r="I359" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J359" t="s"/>
       <c r="K359" t="n">
@@ -17763,7 +17766,7 @@
         <v>30</v>
       </c>
       <c r="O359" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P359" t="s">
         <v>30</v>
@@ -17791,7 +17794,7 @@
       </c>
       <c r="H360" t="s"/>
       <c r="I360" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J360" t="s"/>
       <c r="K360" t="n">
@@ -17835,7 +17838,7 @@
       </c>
       <c r="H361" t="s"/>
       <c r="I361" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J361" t="s"/>
       <c r="K361" t="n">
@@ -17851,7 +17854,7 @@
         <v>30</v>
       </c>
       <c r="O361" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="P361" t="s">
         <v>30</v>
@@ -17879,7 +17882,7 @@
       </c>
       <c r="H362" t="s"/>
       <c r="I362" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J362" t="s"/>
       <c r="K362" t="n">
@@ -17895,7 +17898,7 @@
         <v>30</v>
       </c>
       <c r="O362" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P362" t="s">
         <v>30</v>
@@ -17923,7 +17926,7 @@
       </c>
       <c r="H363" t="s"/>
       <c r="I363" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J363" t="s"/>
       <c r="K363" t="n">
@@ -17939,7 +17942,7 @@
         <v>30</v>
       </c>
       <c r="O363" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P363" t="s">
         <v>30</v>
@@ -17967,7 +17970,7 @@
       </c>
       <c r="H364" t="s"/>
       <c r="I364" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J364" t="s"/>
       <c r="K364" t="n">
@@ -17983,7 +17986,7 @@
         <v>30</v>
       </c>
       <c r="O364" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="P364" t="s">
         <v>30</v>
@@ -18011,7 +18014,7 @@
       </c>
       <c r="H365" t="s"/>
       <c r="I365" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J365" t="s"/>
       <c r="K365" t="n">
@@ -18027,7 +18030,7 @@
         <v>30</v>
       </c>
       <c r="O365" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="P365" t="s">
         <v>30</v>
@@ -18055,7 +18058,7 @@
       </c>
       <c r="H366" t="s"/>
       <c r="I366" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J366" t="s"/>
       <c r="K366" t="n">
@@ -18071,7 +18074,7 @@
         <v>30</v>
       </c>
       <c r="O366" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P366" t="s">
         <v>30</v>
@@ -18099,7 +18102,7 @@
       </c>
       <c r="H367" t="s"/>
       <c r="I367" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J367" t="s"/>
       <c r="K367" t="n">
@@ -18115,7 +18118,7 @@
         <v>30</v>
       </c>
       <c r="O367" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="P367" t="s">
         <v>30</v>
@@ -18143,7 +18146,7 @@
       </c>
       <c r="H368" t="s"/>
       <c r="I368" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J368" t="s"/>
       <c r="K368" t="n">
@@ -18159,7 +18162,7 @@
         <v>30</v>
       </c>
       <c r="O368" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P368" t="s">
         <v>30</v>
@@ -18187,7 +18190,7 @@
       </c>
       <c r="H369" t="s"/>
       <c r="I369" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J369" t="s"/>
       <c r="K369" t="n">
@@ -18203,7 +18206,7 @@
         <v>30</v>
       </c>
       <c r="O369" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="P369" t="s">
         <v>30</v>
@@ -18231,7 +18234,7 @@
       </c>
       <c r="H370" t="s"/>
       <c r="I370" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J370" t="s"/>
       <c r="K370" t="n">
@@ -18247,7 +18250,7 @@
         <v>30</v>
       </c>
       <c r="O370" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P370" t="s">
         <v>30</v>
@@ -18275,7 +18278,7 @@
       </c>
       <c r="H371" t="s"/>
       <c r="I371" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J371" t="s"/>
       <c r="K371" t="n">
@@ -18291,7 +18294,7 @@
         <v>30</v>
       </c>
       <c r="O371" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P371" t="s">
         <v>30</v>
@@ -18319,7 +18322,7 @@
       </c>
       <c r="H372" t="s"/>
       <c r="I372" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J372" t="s"/>
       <c r="K372" t="n">
@@ -18335,7 +18338,7 @@
         <v>30</v>
       </c>
       <c r="O372" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P372" t="s">
         <v>30</v>
@@ -18363,7 +18366,7 @@
       </c>
       <c r="H373" t="s"/>
       <c r="I373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J373" t="s"/>
       <c r="K373" t="n">
@@ -18379,7 +18382,7 @@
         <v>30</v>
       </c>
       <c r="O373" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="P373" t="s">
         <v>30</v>
@@ -18407,7 +18410,7 @@
       </c>
       <c r="H374" t="s"/>
       <c r="I374" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J374" t="s"/>
       <c r="K374" t="n">
@@ -18423,7 +18426,7 @@
         <v>30</v>
       </c>
       <c r="O374" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="P374" t="s">
         <v>30</v>
@@ -18451,7 +18454,7 @@
       </c>
       <c r="H375" t="s"/>
       <c r="I375" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J375" t="s"/>
       <c r="K375" t="n">
@@ -18467,7 +18470,7 @@
         <v>30</v>
       </c>
       <c r="O375" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P375" t="s">
         <v>30</v>
@@ -18495,7 +18498,7 @@
       </c>
       <c r="H376" t="s"/>
       <c r="I376" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J376" t="s"/>
       <c r="K376" t="n">
@@ -18511,7 +18514,7 @@
         <v>30</v>
       </c>
       <c r="O376" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P376" t="s">
         <v>30</v>
@@ -18539,7 +18542,7 @@
       </c>
       <c r="H377" t="s"/>
       <c r="I377" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J377" t="s"/>
       <c r="K377" t="n">
@@ -18555,7 +18558,7 @@
         <v>30</v>
       </c>
       <c r="O377" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P377" t="s">
         <v>30</v>
@@ -18583,7 +18586,7 @@
       </c>
       <c r="H378" t="s"/>
       <c r="I378" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J378" t="s"/>
       <c r="K378" t="n">
@@ -18599,7 +18602,7 @@
         <v>30</v>
       </c>
       <c r="O378" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P378" t="s">
         <v>30</v>
@@ -18627,7 +18630,7 @@
       </c>
       <c r="H379" t="s"/>
       <c r="I379" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J379" t="s"/>
       <c r="K379" t="n">
@@ -18643,7 +18646,7 @@
         <v>30</v>
       </c>
       <c r="O379" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P379" t="s">
         <v>30</v>
@@ -18671,7 +18674,7 @@
       </c>
       <c r="H380" t="s"/>
       <c r="I380" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J380" t="s"/>
       <c r="K380" t="n">
@@ -18715,7 +18718,7 @@
       </c>
       <c r="H381" t="s"/>
       <c r="I381" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J381" t="s"/>
       <c r="K381" t="n">
@@ -18731,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="O381" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P381" t="s">
         <v>30</v>
@@ -18759,7 +18762,7 @@
       </c>
       <c r="H382" t="s"/>
       <c r="I382" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J382" t="s"/>
       <c r="K382" t="n">
@@ -18775,7 +18778,7 @@
         <v>30</v>
       </c>
       <c r="O382" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P382" t="s">
         <v>30</v>
@@ -18803,7 +18806,7 @@
       </c>
       <c r="H383" t="s"/>
       <c r="I383" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J383" t="s"/>
       <c r="K383" t="n">
@@ -18819,7 +18822,7 @@
         <v>30</v>
       </c>
       <c r="O383" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P383" t="s">
         <v>30</v>
@@ -18847,7 +18850,7 @@
       </c>
       <c r="H384" t="s"/>
       <c r="I384" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J384" t="s"/>
       <c r="K384" t="n">
@@ -18863,7 +18866,7 @@
         <v>30</v>
       </c>
       <c r="O384" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P384" t="s">
         <v>30</v>
@@ -18891,7 +18894,7 @@
       </c>
       <c r="H385" t="s"/>
       <c r="I385" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J385" t="s"/>
       <c r="K385" t="n">
@@ -18907,7 +18910,7 @@
         <v>30</v>
       </c>
       <c r="O385" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P385" t="s">
         <v>30</v>
@@ -18935,7 +18938,7 @@
       </c>
       <c r="H386" t="s"/>
       <c r="I386" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J386" t="s"/>
       <c r="K386" t="n">
@@ -18951,7 +18954,7 @@
         <v>30</v>
       </c>
       <c r="O386" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P386" t="s">
         <v>30</v>
@@ -18979,7 +18982,7 @@
       </c>
       <c r="H387" t="s"/>
       <c r="I387" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J387" t="s"/>
       <c r="K387" t="n">
@@ -18995,7 +18998,7 @@
         <v>30</v>
       </c>
       <c r="O387" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P387" t="s">
         <v>30</v>
@@ -19023,7 +19026,7 @@
       </c>
       <c r="H388" t="s"/>
       <c r="I388" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J388" t="s"/>
       <c r="K388" t="n">
@@ -19039,7 +19042,7 @@
         <v>30</v>
       </c>
       <c r="O388" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="P388" t="s">
         <v>30</v>
@@ -19067,7 +19070,7 @@
       </c>
       <c r="H389" t="s"/>
       <c r="I389" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J389" t="s"/>
       <c r="K389" t="n">
@@ -19083,7 +19086,7 @@
         <v>30</v>
       </c>
       <c r="O389" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P389" t="s">
         <v>30</v>
@@ -19111,7 +19114,7 @@
       </c>
       <c r="H390" t="s"/>
       <c r="I390" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J390" t="s"/>
       <c r="K390" t="n">
@@ -19127,7 +19130,7 @@
         <v>30</v>
       </c>
       <c r="O390" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="P390" t="s">
         <v>30</v>
@@ -19155,7 +19158,7 @@
       </c>
       <c r="H391" t="s"/>
       <c r="I391" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J391" t="s"/>
       <c r="K391" t="n">
@@ -19171,7 +19174,7 @@
         <v>30</v>
       </c>
       <c r="O391" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="P391" t="s">
         <v>30</v>
@@ -19199,7 +19202,7 @@
       </c>
       <c r="H392" t="s"/>
       <c r="I392" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J392" t="s"/>
       <c r="K392" t="n">
@@ -19215,7 +19218,7 @@
         <v>30</v>
       </c>
       <c r="O392" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="P392" t="s">
         <v>30</v>
@@ -19243,7 +19246,7 @@
       </c>
       <c r="H393" t="s"/>
       <c r="I393" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J393" t="s"/>
       <c r="K393" t="n">
@@ -19259,7 +19262,7 @@
         <v>30</v>
       </c>
       <c r="O393" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="P393" t="s">
         <v>30</v>
@@ -19287,7 +19290,7 @@
       </c>
       <c r="H394" t="s"/>
       <c r="I394" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J394" t="s"/>
       <c r="K394" t="n">
@@ -19303,7 +19306,7 @@
         <v>30</v>
       </c>
       <c r="O394" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P394" t="s">
         <v>30</v>
@@ -19331,7 +19334,7 @@
       </c>
       <c r="H395" t="s"/>
       <c r="I395" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J395" t="s"/>
       <c r="K395" t="n">
@@ -19347,7 +19350,7 @@
         <v>30</v>
       </c>
       <c r="O395" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="P395" t="s">
         <v>30</v>
@@ -19375,7 +19378,7 @@
       </c>
       <c r="H396" t="s"/>
       <c r="I396" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J396" t="s"/>
       <c r="K396" t="n">
@@ -19391,7 +19394,7 @@
         <v>30</v>
       </c>
       <c r="O396" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="P396" t="s">
         <v>30</v>
@@ -19419,7 +19422,7 @@
       </c>
       <c r="H397" t="s"/>
       <c r="I397" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J397" t="s"/>
       <c r="K397" t="n">
@@ -19435,7 +19438,7 @@
         <v>30</v>
       </c>
       <c r="O397" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P397" t="s">
         <v>30</v>
@@ -19463,7 +19466,7 @@
       </c>
       <c r="H398" t="s"/>
       <c r="I398" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J398" t="s"/>
       <c r="K398" t="n">
@@ -19479,7 +19482,7 @@
         <v>30</v>
       </c>
       <c r="O398" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P398" t="s">
         <v>30</v>
@@ -19507,7 +19510,7 @@
       </c>
       <c r="H399" t="s"/>
       <c r="I399" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J399" t="s"/>
       <c r="K399" t="n">
@@ -19523,7 +19526,7 @@
         <v>30</v>
       </c>
       <c r="O399" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P399" t="s">
         <v>30</v>
@@ -19551,7 +19554,7 @@
       </c>
       <c r="H400" t="s"/>
       <c r="I400" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J400" t="s"/>
       <c r="K400" t="n">
@@ -19567,7 +19570,7 @@
         <v>30</v>
       </c>
       <c r="O400" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P400" t="s">
         <v>30</v>
@@ -19595,7 +19598,7 @@
       </c>
       <c r="H401" t="s"/>
       <c r="I401" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J401" t="s"/>
       <c r="K401" t="n">
@@ -19611,7 +19614,7 @@
         <v>30</v>
       </c>
       <c r="O401" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P401" t="s">
         <v>30</v>
@@ -19639,7 +19642,7 @@
       </c>
       <c r="H402" t="s"/>
       <c r="I402" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J402" t="s"/>
       <c r="K402" t="n">
@@ -19655,7 +19658,7 @@
         <v>30</v>
       </c>
       <c r="O402" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P402" t="s">
         <v>30</v>
@@ -19683,7 +19686,7 @@
       </c>
       <c r="H403" t="s"/>
       <c r="I403" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J403" t="s"/>
       <c r="K403" t="n">
@@ -19699,7 +19702,7 @@
         <v>30</v>
       </c>
       <c r="O403" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="P403" t="s">
         <v>30</v>
@@ -19727,7 +19730,7 @@
       </c>
       <c r="H404" t="s"/>
       <c r="I404" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J404" t="s"/>
       <c r="K404" t="n">
@@ -19743,7 +19746,7 @@
         <v>30</v>
       </c>
       <c r="O404" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P404" t="s">
         <v>30</v>
@@ -19771,7 +19774,7 @@
       </c>
       <c r="H405" t="s"/>
       <c r="I405" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J405" t="s"/>
       <c r="K405" t="n">
@@ -19787,7 +19790,7 @@
         <v>30</v>
       </c>
       <c r="O405" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="P405" t="s">
         <v>30</v>
@@ -19815,7 +19818,7 @@
       </c>
       <c r="H406" t="s"/>
       <c r="I406" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J406" t="s"/>
       <c r="K406" t="n">
@@ -19831,7 +19834,7 @@
         <v>30</v>
       </c>
       <c r="O406" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P406" t="s">
         <v>30</v>
@@ -19859,7 +19862,7 @@
       </c>
       <c r="H407" t="s"/>
       <c r="I407" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J407" t="s"/>
       <c r="K407" t="n">
@@ -19875,7 +19878,7 @@
         <v>30</v>
       </c>
       <c r="O407" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P407" t="s">
         <v>30</v>
@@ -19903,7 +19906,7 @@
       </c>
       <c r="H408" t="s"/>
       <c r="I408" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J408" t="s"/>
       <c r="K408" t="n">
@@ -19919,7 +19922,7 @@
         <v>30</v>
       </c>
       <c r="O408" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P408" t="s">
         <v>30</v>
@@ -19947,7 +19950,7 @@
       </c>
       <c r="H409" t="s"/>
       <c r="I409" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J409" t="s"/>
       <c r="K409" t="n">
@@ -19963,7 +19966,7 @@
         <v>30</v>
       </c>
       <c r="O409" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="P409" t="s">
         <v>30</v>
@@ -19991,7 +19994,7 @@
       </c>
       <c r="H410" t="s"/>
       <c r="I410" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J410" t="s"/>
       <c r="K410" t="n">
@@ -20007,7 +20010,7 @@
         <v>30</v>
       </c>
       <c r="O410" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="P410" t="s">
         <v>30</v>
@@ -20035,7 +20038,7 @@
       </c>
       <c r="H411" t="s"/>
       <c r="I411" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J411" t="s"/>
       <c r="K411" t="n">
@@ -20051,7 +20054,7 @@
         <v>30</v>
       </c>
       <c r="O411" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P411" t="s">
         <v>30</v>
@@ -20079,7 +20082,7 @@
       </c>
       <c r="H412" t="s"/>
       <c r="I412" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J412" t="s"/>
       <c r="K412" t="n">
@@ -20095,7 +20098,7 @@
         <v>30</v>
       </c>
       <c r="O412" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P412" t="s">
         <v>30</v>
@@ -20123,7 +20126,7 @@
       </c>
       <c r="H413" t="s"/>
       <c r="I413" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J413" t="s"/>
       <c r="K413" t="n">
@@ -20139,7 +20142,7 @@
         <v>30</v>
       </c>
       <c r="O413" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="P413" t="s">
         <v>30</v>
@@ -20167,7 +20170,7 @@
       </c>
       <c r="H414" t="s"/>
       <c r="I414" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J414" t="s"/>
       <c r="K414" t="n">
@@ -20183,7 +20186,7 @@
         <v>30</v>
       </c>
       <c r="O414" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="P414" t="s">
         <v>30</v>
@@ -20211,7 +20214,7 @@
       </c>
       <c r="H415" t="s"/>
       <c r="I415" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J415" t="s"/>
       <c r="K415" t="n">
@@ -20227,7 +20230,7 @@
         <v>30</v>
       </c>
       <c r="O415" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P415" t="s">
         <v>30</v>
@@ -20255,7 +20258,7 @@
       </c>
       <c r="H416" t="s"/>
       <c r="I416" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J416" t="s"/>
       <c r="K416" t="n">
@@ -20271,7 +20274,7 @@
         <v>30</v>
       </c>
       <c r="O416" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P416" t="s">
         <v>30</v>
@@ -20299,7 +20302,7 @@
       </c>
       <c r="H417" t="s"/>
       <c r="I417" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J417" t="s"/>
       <c r="K417" t="n">
@@ -20315,7 +20318,7 @@
         <v>30</v>
       </c>
       <c r="O417" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P417" t="s">
         <v>30</v>
@@ -20343,7 +20346,7 @@
       </c>
       <c r="H418" t="s"/>
       <c r="I418" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J418" t="s"/>
       <c r="K418" t="n">
@@ -20359,7 +20362,7 @@
         <v>30</v>
       </c>
       <c r="O418" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P418" t="s">
         <v>30</v>
@@ -20387,7 +20390,7 @@
       </c>
       <c r="H419" t="s"/>
       <c r="I419" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J419" t="s"/>
       <c r="K419" t="n">
@@ -20403,10 +20406,10 @@
         <v>30</v>
       </c>
       <c r="O419" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P419" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -20431,7 +20434,7 @@
       </c>
       <c r="H420" t="s"/>
       <c r="I420" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J420" t="s"/>
       <c r="K420" t="n">
@@ -20447,10 +20450,10 @@
         <v>30</v>
       </c>
       <c r="O420" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="P420" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -20475,7 +20478,7 @@
       </c>
       <c r="H421" t="s"/>
       <c r="I421" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J421" t="s"/>
       <c r="K421" t="n">
@@ -20491,7 +20494,7 @@
         <v>30</v>
       </c>
       <c r="O421" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="P421" t="s">
         <v>30</v>
@@ -20519,7 +20522,7 @@
       </c>
       <c r="H422" t="s"/>
       <c r="I422" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J422" t="s"/>
       <c r="K422" t="n">
@@ -20535,7 +20538,7 @@
         <v>30</v>
       </c>
       <c r="O422" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P422" t="s">
         <v>30</v>
@@ -20563,7 +20566,7 @@
       </c>
       <c r="H423" t="s"/>
       <c r="I423" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J423" t="s"/>
       <c r="K423" t="n">
@@ -20579,7 +20582,7 @@
         <v>30</v>
       </c>
       <c r="O423" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="P423" t="s">
         <v>30</v>
@@ -20607,7 +20610,7 @@
       </c>
       <c r="H424" t="s"/>
       <c r="I424" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J424" t="s"/>
       <c r="K424" t="n">
@@ -20623,7 +20626,7 @@
         <v>30</v>
       </c>
       <c r="O424" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P424" t="s">
         <v>30</v>
@@ -20651,7 +20654,7 @@
       </c>
       <c r="H425" t="s"/>
       <c r="I425" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J425" t="s"/>
       <c r="K425" t="n">
@@ -20667,7 +20670,7 @@
         <v>30</v>
       </c>
       <c r="O425" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="P425" t="s">
         <v>30</v>
@@ -20695,7 +20698,7 @@
       </c>
       <c r="H426" t="s"/>
       <c r="I426" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J426" t="s"/>
       <c r="K426" t="n">
@@ -20711,7 +20714,7 @@
         <v>30</v>
       </c>
       <c r="O426" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P426" t="s">
         <v>30</v>
@@ -20739,7 +20742,7 @@
       </c>
       <c r="H427" t="s"/>
       <c r="I427" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J427" t="s"/>
       <c r="K427" t="n">
@@ -20755,10 +20758,10 @@
         <v>30</v>
       </c>
       <c r="O427" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P427" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -20783,7 +20786,7 @@
       </c>
       <c r="H428" t="s"/>
       <c r="I428" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J428" t="s"/>
       <c r="K428" t="n">
@@ -20799,7 +20802,7 @@
         <v>30</v>
       </c>
       <c r="O428" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P428" t="s">
         <v>34</v>
@@ -20827,7 +20830,7 @@
       </c>
       <c r="H429" t="s"/>
       <c r="I429" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J429" t="s"/>
       <c r="K429" t="n">
@@ -20871,7 +20874,7 @@
       </c>
       <c r="H430" t="s"/>
       <c r="I430" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J430" t="s"/>
       <c r="K430" t="n">
@@ -20887,10 +20890,10 @@
         <v>30</v>
       </c>
       <c r="O430" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P430" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -20915,7 +20918,7 @@
       </c>
       <c r="H431" t="s"/>
       <c r="I431" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J431" t="s"/>
       <c r="K431" t="n">
@@ -20931,7 +20934,7 @@
         <v>30</v>
       </c>
       <c r="O431" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P431" t="s">
         <v>30</v>
@@ -20959,7 +20962,7 @@
       </c>
       <c r="H432" t="s"/>
       <c r="I432" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J432" t="s"/>
       <c r="K432" t="n">
@@ -20975,7 +20978,7 @@
         <v>30</v>
       </c>
       <c r="O432" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P432" t="s">
         <v>30</v>
@@ -21003,7 +21006,7 @@
       </c>
       <c r="H433" t="s"/>
       <c r="I433" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J433" t="s"/>
       <c r="K433" t="n">
@@ -21019,7 +21022,7 @@
         <v>30</v>
       </c>
       <c r="O433" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P433" t="s">
         <v>30</v>
@@ -21047,7 +21050,7 @@
       </c>
       <c r="H434" t="s"/>
       <c r="I434" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J434" t="s"/>
       <c r="K434" t="n">
@@ -21091,7 +21094,7 @@
       </c>
       <c r="H435" t="s"/>
       <c r="I435" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J435" t="s"/>
       <c r="K435" t="n">
@@ -21107,7 +21110,7 @@
         <v>30</v>
       </c>
       <c r="O435" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P435" t="s">
         <v>30</v>
@@ -21135,11 +21138,11 @@
       </c>
       <c r="H436" t="s"/>
       <c r="I436" t="s">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="J436" t="s"/>
       <c r="K436" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L436" s="2" t="n">
         <v>1</v>
@@ -21151,10 +21154,10 @@
         <v>30</v>
       </c>
       <c r="O436" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="P436" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21179,11 +21182,11 @@
       </c>
       <c r="H437" t="s"/>
       <c r="I437" t="s">
-        <v>478</v>
+        <v>62</v>
       </c>
       <c r="J437" t="s"/>
       <c r="K437" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L437" s="2" t="n">
         <v>1</v>
@@ -21223,11 +21226,11 @@
       </c>
       <c r="H438" t="s"/>
       <c r="I438" t="s">
-        <v>70</v>
+        <v>479</v>
       </c>
       <c r="J438" t="s"/>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L438" s="2" t="n">
         <v>1</v>
@@ -21242,7 +21245,7 @@
         <v>33</v>
       </c>
       <c r="P438" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21267,11 +21270,11 @@
       </c>
       <c r="H439" t="s"/>
       <c r="I439" t="s">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="J439" t="s"/>
       <c r="K439" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L439" s="2" t="n">
         <v>1</v>
@@ -21311,11 +21314,11 @@
       </c>
       <c r="H440" t="s"/>
       <c r="I440" t="s">
-        <v>71</v>
+        <v>481</v>
       </c>
       <c r="J440" t="s"/>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L440" s="2" t="n">
         <v>1</v>
@@ -21355,11 +21358,11 @@
       </c>
       <c r="H441" t="s"/>
       <c r="I441" t="s">
-        <v>482</v>
+        <v>71</v>
       </c>
       <c r="J441" t="s"/>
       <c r="K441" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L441" s="2" t="n">
         <v>1</v>
@@ -21399,11 +21402,11 @@
       </c>
       <c r="H442" t="s"/>
       <c r="I442" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
       <c r="J442" t="s"/>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L442" s="2" t="n">
         <v>1</v>
@@ -21418,7 +21421,7 @@
         <v>33</v>
       </c>
       <c r="P442" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -21443,11 +21446,11 @@
       </c>
       <c r="H443" t="s"/>
       <c r="I443" t="s">
-        <v>484</v>
+        <v>72</v>
       </c>
       <c r="J443" t="s"/>
       <c r="K443" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L443" s="2" t="n">
         <v>1</v>
@@ -21487,11 +21490,11 @@
       </c>
       <c r="H444" t="s"/>
       <c r="I444" t="s">
-        <v>74</v>
+        <v>485</v>
       </c>
       <c r="J444" t="s"/>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L444" s="2" t="n">
         <v>1</v>
@@ -21506,7 +21509,7 @@
         <v>33</v>
       </c>
       <c r="P444" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -21531,11 +21534,11 @@
       </c>
       <c r="H445" t="s"/>
       <c r="I445" t="s">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="J445" t="s"/>
       <c r="K445" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L445" s="2" t="n">
         <v>1</v>
@@ -21575,11 +21578,11 @@
       </c>
       <c r="H446" t="s"/>
       <c r="I446" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="J446" t="s"/>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L446" s="2" t="n">
         <v>1</v>
@@ -21619,11 +21622,11 @@
       </c>
       <c r="H447" t="s"/>
       <c r="I447" t="s">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="J447" t="s"/>
       <c r="K447" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L447" s="2" t="n">
         <v>1</v>
@@ -21663,11 +21666,11 @@
       </c>
       <c r="H448" t="s"/>
       <c r="I448" t="s">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="J448" t="s"/>
       <c r="K448" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L448" s="2" t="n">
         <v>1</v>
@@ -21707,11 +21710,11 @@
       </c>
       <c r="H449" t="s"/>
       <c r="I449" t="s">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="J449" t="s"/>
       <c r="K449" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L449" s="2" t="n">
         <v>1</v>
@@ -21751,11 +21754,11 @@
       </c>
       <c r="H450" t="s"/>
       <c r="I450" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="J450" t="s"/>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L450" s="2" t="n">
         <v>1</v>
@@ -21795,11 +21798,11 @@
       </c>
       <c r="H451" t="s"/>
       <c r="I451" t="s">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="J451" t="s"/>
       <c r="K451" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L451" s="2" t="n">
         <v>1</v>
@@ -21839,11 +21842,11 @@
       </c>
       <c r="H452" t="s"/>
       <c r="I452" t="s">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="J452" t="s"/>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L452" s="2" t="n">
         <v>1</v>
@@ -21883,11 +21886,11 @@
       </c>
       <c r="H453" t="s"/>
       <c r="I453" t="s">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="J453" t="s"/>
       <c r="K453" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L453" s="2" t="n">
         <v>1</v>
@@ -21902,6 +21905,50 @@
         <v>33</v>
       </c>
       <c r="P453" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C454" t="s">
+        <v>30</v>
+      </c>
+      <c r="D454" t="s">
+        <v>496</v>
+      </c>
+      <c r="E454" t="s"/>
+      <c r="F454" t="s">
+        <v>30</v>
+      </c>
+      <c r="G454" t="s">
+        <v>496</v>
+      </c>
+      <c r="H454" t="s"/>
+      <c r="I454" t="s">
+        <v>495</v>
+      </c>
+      <c r="J454" t="s"/>
+      <c r="K454" t="n">
+        <v>160</v>
+      </c>
+      <c r="L454" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="s">
+        <v>32</v>
+      </c>
+      <c r="N454" t="s">
+        <v>30</v>
+      </c>
+      <c r="O454" t="s">
+        <v>33</v>
+      </c>
+      <c r="P454" t="s">
         <v>30</v>
       </c>
     </row>
